--- a/Game Sheet.xlsx
+++ b/Game Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinity\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinity\Documents\GitHub\Game-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE1ABAF-8AD4-47DF-93B7-CFCE324A853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491081D4-C3DC-4D22-9C47-AA69E55F677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D055D24-AC46-4A22-A477-A2ECECDBDB9E}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="172">
   <si>
     <t>Game</t>
   </si>
@@ -604,6 +604,12 @@
   <si>
     <t>38m</t>
   </si>
+  <si>
+    <t>Loop Hero</t>
+  </si>
+  <si>
+    <t>30h</t>
+  </si>
 </sst>
 </file>
 
@@ -750,7 +756,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1581,8 +1590,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82:H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1606,47 +1615,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2"/>
-      <c r="K2" s="11"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
@@ -1790,14 +1799,14 @@
         <f>IF(OR(C7="Y", C7="Y+", C7="Y++"),"_","")</f>
         <v/>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
@@ -1831,12 +1840,12 @@
         <f>IF(OR(C8="Y", C8="Y+", C8="Y++"),"_","")</f>
         <v/>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -4024,9 +4033,17 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E80" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="B80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4034,11 +4051,10 @@
       </c>
       <c r="G80" s="1" t="str">
         <f>IF(OR(C80="Y++", C80="Y+", C80="Y"),"_",IF(OR(C80="N", ISTEXT(B80)),"_",""))</f>
-        <v/>
-      </c>
-      <c r="H80" s="1" t="str">
-        <f t="shared" ref="H80:H130" si="11">IF(ISTEXT(B80),"_","")</f>
-        <v/>
+        <v>_</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="I80" s="1" t="str">
         <f t="shared" si="7"/>
@@ -4059,11 +4075,11 @@
         <v/>
       </c>
       <c r="G81" s="5" t="str">
-        <f t="shared" ref="G81:G144" si="12">IF(OR(C81="Y++", C81="Y+", C81="Y"),"_",IF(OR(C81="N", ISTEXT(B81)),"_",""))</f>
+        <f t="shared" ref="G81:G144" si="11">IF(OR(C81="Y++", C81="Y+", C81="Y"),"_",IF(OR(C81="N", ISTEXT(B81)),"_",""))</f>
         <v/>
       </c>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H80:H130" si="12">IF(ISTEXT(B81),"_","")</f>
         <v/>
       </c>
       <c r="I81" s="1" t="str">
@@ -4085,11 +4101,11 @@
         <v/>
       </c>
       <c r="G82" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H82" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H82" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I82" s="1" t="str">
@@ -4111,11 +4127,11 @@
         <v/>
       </c>
       <c r="G83" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H83" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H83" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I83" s="1" t="str">
@@ -4137,11 +4153,11 @@
         <v/>
       </c>
       <c r="G84" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H84" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H84" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I84" s="1" t="str">
@@ -4163,11 +4179,11 @@
         <v/>
       </c>
       <c r="G85" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H85" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H85" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I85" s="1" t="str">
@@ -4189,11 +4205,11 @@
         <v/>
       </c>
       <c r="G86" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H86" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H86" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I86" s="1" t="str">
@@ -4215,11 +4231,11 @@
         <v/>
       </c>
       <c r="G87" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H87" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H87" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I87" s="1" t="str">
@@ -4241,11 +4257,11 @@
         <v/>
       </c>
       <c r="G88" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H88" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H88" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I88" s="1" t="str">
@@ -4267,11 +4283,11 @@
         <v/>
       </c>
       <c r="G89" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H89" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H89" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I89" s="1" t="str">
@@ -4293,11 +4309,11 @@
         <v/>
       </c>
       <c r="G90" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H90" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H90" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I90" s="1" t="str">
@@ -4319,11 +4335,11 @@
         <v/>
       </c>
       <c r="G91" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H91" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H91" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I91" s="1" t="str">
@@ -4345,11 +4361,11 @@
         <v/>
       </c>
       <c r="G92" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H92" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H92" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I92" s="1" t="str">
@@ -4371,11 +4387,11 @@
         <v/>
       </c>
       <c r="G93" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H93" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H93" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I93" s="1" t="str">
@@ -4397,11 +4413,11 @@
         <v/>
       </c>
       <c r="G94" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H94" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H94" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I94" s="1" t="str">
@@ -4423,11 +4439,11 @@
         <v/>
       </c>
       <c r="G95" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H95" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H95" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I95" s="1" t="str">
@@ -4449,11 +4465,11 @@
         <v/>
       </c>
       <c r="G96" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H96" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H96" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I96" s="1" t="str">
@@ -4475,11 +4491,11 @@
         <v/>
       </c>
       <c r="G97" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H97" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H97" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I97" s="1" t="str">
@@ -4501,11 +4517,11 @@
         <v/>
       </c>
       <c r="G98" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H98" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H98" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I98" s="1" t="str">
@@ -4527,11 +4543,11 @@
         <v/>
       </c>
       <c r="G99" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H99" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H99" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I99" s="1" t="str">
@@ -4553,11 +4569,11 @@
         <v/>
       </c>
       <c r="G100" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H100" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H100" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I100" s="1" t="str">
@@ -4579,11 +4595,11 @@
         <v/>
       </c>
       <c r="G101" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H101" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H101" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I101" s="1" t="str">
@@ -4605,11 +4621,11 @@
         <v/>
       </c>
       <c r="G102" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H102" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H102" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I102" s="1" t="str">
@@ -4631,11 +4647,11 @@
         <v/>
       </c>
       <c r="G103" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H103" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H103" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I103" s="1" t="str">
@@ -4657,11 +4673,11 @@
         <v/>
       </c>
       <c r="G104" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H104" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H104" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I104" s="1" t="str">
@@ -4683,11 +4699,11 @@
         <v/>
       </c>
       <c r="G105" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H105" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H105" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I105" s="1" t="str">
@@ -4709,11 +4725,11 @@
         <v/>
       </c>
       <c r="G106" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H106" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H106" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I106" s="1" t="str">
@@ -4735,11 +4751,11 @@
         <v/>
       </c>
       <c r="G107" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H107" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H107" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I107" s="1" t="str">
@@ -4761,11 +4777,11 @@
         <v/>
       </c>
       <c r="G108" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H108" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H108" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I108" s="1" t="str">
@@ -4787,11 +4803,11 @@
         <v/>
       </c>
       <c r="G109" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H109" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H109" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I109" s="1" t="str">
@@ -4813,11 +4829,11 @@
         <v/>
       </c>
       <c r="G110" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H110" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H110" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I110" s="1" t="str">
@@ -4839,11 +4855,11 @@
         <v/>
       </c>
       <c r="G111" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H111" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H111" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I111" s="1" t="str">
@@ -4865,11 +4881,11 @@
         <v/>
       </c>
       <c r="G112" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H112" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H112" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I112" s="1" t="str">
@@ -4891,11 +4907,11 @@
         <v/>
       </c>
       <c r="G113" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H113" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H113" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I113" s="1" t="str">
@@ -4917,11 +4933,11 @@
         <v/>
       </c>
       <c r="G114" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H114" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H114" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I114" s="1" t="str">
@@ -4943,11 +4959,11 @@
         <v/>
       </c>
       <c r="G115" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H115" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H115" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I115" s="1" t="str">
@@ -4969,11 +4985,11 @@
         <v/>
       </c>
       <c r="G116" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H116" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H116" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I116" s="1" t="str">
@@ -4995,11 +5011,11 @@
         <v/>
       </c>
       <c r="G117" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H117" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H117" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I117" s="1" t="str">
@@ -5021,11 +5037,11 @@
         <v/>
       </c>
       <c r="G118" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H118" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H118" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I118" s="1" t="str">
@@ -5047,11 +5063,11 @@
         <v/>
       </c>
       <c r="G119" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H119" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H119" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I119" s="1" t="str">
@@ -5073,11 +5089,11 @@
         <v/>
       </c>
       <c r="G120" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H120" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H120" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I120" s="1" t="str">
@@ -5099,11 +5115,11 @@
         <v/>
       </c>
       <c r="G121" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H121" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H121" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I121" s="1" t="str">
@@ -5125,11 +5141,11 @@
         <v/>
       </c>
       <c r="G122" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H122" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H122" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I122" s="1" t="str">
@@ -5151,11 +5167,11 @@
         <v/>
       </c>
       <c r="G123" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H123" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H123" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I123" s="1" t="str">
@@ -5177,11 +5193,11 @@
         <v/>
       </c>
       <c r="G124" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H124" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H124" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I124" s="1" t="str">
@@ -5203,11 +5219,11 @@
         <v/>
       </c>
       <c r="G125" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H125" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H125" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I125" s="1" t="str">
@@ -5229,11 +5245,11 @@
         <v/>
       </c>
       <c r="G126" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H126" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H126" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I126" s="1" t="str">
@@ -5255,11 +5271,11 @@
         <v/>
       </c>
       <c r="G127" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H127" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H127" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I127" s="1" t="str">
@@ -5281,11 +5297,11 @@
         <v/>
       </c>
       <c r="G128" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H128" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H128" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I128" s="1" t="str">
@@ -5307,11 +5323,11 @@
         <v/>
       </c>
       <c r="G129" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H129" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H129" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I129" s="1" t="str">
@@ -5333,11 +5349,11 @@
         <v/>
       </c>
       <c r="G130" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H130" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H130" s="1" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I130" s="1" t="str">
@@ -5359,7 +5375,7 @@
         <v/>
       </c>
       <c r="G131" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H131" s="1" t="str">
@@ -5385,7 +5401,7 @@
         <v/>
       </c>
       <c r="G132" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H132" s="1" t="str">
@@ -5411,7 +5427,7 @@
         <v/>
       </c>
       <c r="G133" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H133" s="1" t="str">
@@ -5437,7 +5453,7 @@
         <v/>
       </c>
       <c r="G134" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H134" s="1" t="str">
@@ -5463,7 +5479,7 @@
         <v/>
       </c>
       <c r="G135" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H135" s="1" t="str">
@@ -5489,7 +5505,7 @@
         <v/>
       </c>
       <c r="G136" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H136" s="1" t="str">
@@ -5515,7 +5531,7 @@
         <v/>
       </c>
       <c r="G137" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H137" s="1" t="str">
@@ -5541,7 +5557,7 @@
         <v/>
       </c>
       <c r="G138" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H138" s="1" t="str">
@@ -5567,7 +5583,7 @@
         <v/>
       </c>
       <c r="G139" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H139" s="1" t="str">
@@ -5593,7 +5609,7 @@
         <v/>
       </c>
       <c r="G140" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H140" s="1" t="str">
@@ -5619,7 +5635,7 @@
         <v/>
       </c>
       <c r="G141" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H141" s="1" t="str">
@@ -5645,7 +5661,7 @@
         <v/>
       </c>
       <c r="G142" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H142" s="1" t="str">
@@ -5671,7 +5687,7 @@
         <v/>
       </c>
       <c r="G143" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H143" s="1" t="str">
@@ -5697,7 +5713,7 @@
         <v/>
       </c>
       <c r="G144" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H144" s="1" t="str">
@@ -28102,8 +28118,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Entry" error="This game is already present in the list. Are you sure you want to proceed?" sqref="B5:B1000" xr:uid="{775522EF-0252-4EA3-8684-3E90FDB29036}">
-      <formula1>COUNTIF($D5:$D1000,D2)=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Game!" error="This game is already present in the list." sqref="B4:B1003" xr:uid="{39DDE296-3C48-470E-B559-700730A815BC}">
+      <formula1>COUNTIF($B$4:$B$1003,B4)=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game Sheet.xlsx
+++ b/Game Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinity\Documents\GitHub\Game-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491081D4-C3DC-4D22-9C47-AA69E55F677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B92FB1-7671-4E64-A4BC-AAC2AF086316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D055D24-AC46-4A22-A477-A2ECECDBDB9E}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="174">
   <si>
     <t>Game</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>30h</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portal 2</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1596,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82:H83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4065,7 +4071,10 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="E81" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="G81" s="5" t="str">
         <f t="shared" ref="G81:G144" si="11">IF(OR(C81="Y++", C81="Y+", C81="Y"),"_",IF(OR(C81="N", ISTEXT(B81)),"_",""))</f>
-        <v/>
+        <v>_</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f t="shared" ref="H80:H130" si="12">IF(ISTEXT(B81),"_","")</f>
-        <v/>
+        <f t="shared" ref="H81:H130" si="12">IF(ISTEXT(B81),"_","")</f>
+        <v>_</v>
       </c>
       <c r="I81" s="1" t="str">
         <f t="shared" si="7"/>
@@ -4091,7 +4100,10 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="E82" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4102,11 +4114,11 @@
       </c>
       <c r="G82" s="5" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>_</v>
       </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>_</v>
       </c>
       <c r="I82" s="1" t="str">
         <f t="shared" si="7"/>
@@ -4117,7 +4129,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E83" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4143,7 +4155,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E84" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4169,7 +4181,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E85" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4195,7 +4207,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E86" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4221,7 +4233,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E87" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4247,7 +4259,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4273,7 +4285,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E89" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4299,7 +4311,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E90" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4325,7 +4337,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E91" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4351,7 +4363,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E92" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4377,7 +4389,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E93" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4403,7 +4415,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E94" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4429,7 +4441,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E95" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4455,7 +4467,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E96" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>

--- a/Game Sheet.xlsx
+++ b/Game Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infinity\Documents\GitHub\Game-Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B92FB1-7671-4E64-A4BC-AAC2AF086316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED686BFB-ECDB-4797-BA8E-F8F43C174940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D055D24-AC46-4A22-A477-A2ECECDBDB9E}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="177">
   <si>
     <t>Game</t>
   </si>
@@ -616,6 +616,15 @@
   <si>
     <t>Portal 2</t>
   </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Eternights</t>
+  </si>
+  <si>
+    <t>11h 30m</t>
+  </si>
 </sst>
 </file>
 
@@ -762,7 +771,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,6 +794,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1597,7 +1612,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1621,47 +1636,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
@@ -1805,14 +1820,14 @@
         <f>IF(OR(C7="Y", C7="Y+", C7="Y++"),"_","")</f>
         <v/>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
@@ -1846,12 +1861,12 @@
         <f>IF(OR(C8="Y", C8="Y+", C8="Y++"),"_","")</f>
         <v/>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -2321,7 +2336,7 @@
         <v>154</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" ref="F22:F85" si="6">IF(OR(C22="Y++", C22="Y+", C22="Y"),"_","")</f>
+        <f t="shared" ref="F22:F86" si="6">IF(OR(C22="Y++", C22="Y+", C22="Y"),"_","")</f>
         <v/>
       </c>
       <c r="G22" s="1" t="str">
@@ -4075,76 +4090,81 @@
       <c r="B81" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E81" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F81" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G81" s="5" t="str">
-        <f t="shared" ref="G81:G144" si="11">IF(OR(C81="Y++", C81="Y+", C81="Y"),"_",IF(OR(C81="N", ISTEXT(B81)),"_",""))</f>
-        <v>_</v>
-      </c>
-      <c r="H81" s="1" t="str">
-        <f t="shared" ref="H81:H130" si="12">IF(ISTEXT(B81),"_","")</f>
-        <v>_</v>
-      </c>
-      <c r="I81" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K81" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="C81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E82" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="D82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G82:G144" si="11">IF(OR(C82="Y++", C82="Y+", C82="Y"),"_",IF(OR(C82="N", ISTEXT(B82)),"_",""))</f>
         <v>_</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H82:H130" si="12">IF(ISTEXT(B82),"_","")</f>
         <v>_</v>
       </c>
       <c r="I82" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K82" s="1" t="str">
+      <c r="K82" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E83" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="B83" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G83" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H83" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G83" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="I83" s="1" t="str">
         <f t="shared" si="7"/>
@@ -4212,8 +4232,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F86" s="1" t="str">
-        <f t="shared" ref="F86:F149" si="13">IF(OR(C86="Y++", C86="Y+", C86="Y"),"_","")</f>
+      <c r="F86" s="12" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G86" s="5" t="str">
@@ -4225,11 +4245,11 @@
         <v/>
       </c>
       <c r="I86" s="1" t="str">
-        <f t="shared" ref="I86:I149" si="14">IF(OR(C86="Y++", C86="Y+", C86="Y"),"_","")</f>
+        <f t="shared" ref="I86:I149" si="13">IF(OR(C86="Y++", C86="Y+", C86="Y"),"_","")</f>
         <v/>
       </c>
       <c r="K86" s="1" t="str">
-        <f t="shared" ref="K86:K149" si="15">IF(OR(C86="Y", C86="Y+", C86="Y++"),"_","")</f>
+        <f t="shared" ref="K86:K149" si="14">IF(OR(C86="Y", C86="Y+", C86="Y++"),"_","")</f>
         <v/>
       </c>
     </row>
@@ -4239,7 +4259,7 @@
         <v/>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F86:F149" si="15">IF(OR(C87="Y++", C87="Y+", C87="Y"),"_","")</f>
         <v/>
       </c>
       <c r="G87" s="5" t="str">
@@ -4251,11 +4271,11 @@
         <v/>
       </c>
       <c r="I87" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K87" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K87" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4265,7 +4285,7 @@
         <v/>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G88" s="5" t="str">
@@ -4277,11 +4297,11 @@
         <v/>
       </c>
       <c r="I88" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K88" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K88" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4291,7 +4311,7 @@
         <v/>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G89" s="5" t="str">
@@ -4303,11 +4323,11 @@
         <v/>
       </c>
       <c r="I89" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K89" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K89" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4317,7 +4337,7 @@
         <v/>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G90" s="5" t="str">
@@ -4329,11 +4349,11 @@
         <v/>
       </c>
       <c r="I90" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K90" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K90" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4343,7 +4363,7 @@
         <v/>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G91" s="5" t="str">
@@ -4355,11 +4375,11 @@
         <v/>
       </c>
       <c r="I91" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K91" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K91" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4369,7 +4389,7 @@
         <v/>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G92" s="5" t="str">
@@ -4381,11 +4401,11 @@
         <v/>
       </c>
       <c r="I92" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K92" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K92" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4395,7 +4415,7 @@
         <v/>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G93" s="5" t="str">
@@ -4407,11 +4427,11 @@
         <v/>
       </c>
       <c r="I93" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K93" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K93" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4421,7 +4441,7 @@
         <v/>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G94" s="5" t="str">
@@ -4433,11 +4453,11 @@
         <v/>
       </c>
       <c r="I94" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K94" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K94" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4447,7 +4467,7 @@
         <v/>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G95" s="5" t="str">
@@ -4459,11 +4479,11 @@
         <v/>
       </c>
       <c r="I95" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K95" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K95" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4473,7 +4493,7 @@
         <v/>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G96" s="5" t="str">
@@ -4485,11 +4505,11 @@
         <v/>
       </c>
       <c r="I96" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K96" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K96" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4499,7 +4519,7 @@
         <v/>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G97" s="5" t="str">
@@ -4511,11 +4531,11 @@
         <v/>
       </c>
       <c r="I97" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K97" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K97" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4525,7 +4545,7 @@
         <v/>
       </c>
       <c r="F98" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G98" s="5" t="str">
@@ -4537,11 +4557,11 @@
         <v/>
       </c>
       <c r="I98" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K98" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K98" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4551,7 +4571,7 @@
         <v/>
       </c>
       <c r="F99" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G99" s="5" t="str">
@@ -4563,11 +4583,11 @@
         <v/>
       </c>
       <c r="I99" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K99" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K99" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4577,7 +4597,7 @@
         <v/>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G100" s="5" t="str">
@@ -4589,11 +4609,11 @@
         <v/>
       </c>
       <c r="I100" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K100" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K100" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4603,7 +4623,7 @@
         <v/>
       </c>
       <c r="F101" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G101" s="5" t="str">
@@ -4615,11 +4635,11 @@
         <v/>
       </c>
       <c r="I101" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K101" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K101" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4629,7 +4649,7 @@
         <v/>
       </c>
       <c r="F102" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G102" s="5" t="str">
@@ -4641,11 +4661,11 @@
         <v/>
       </c>
       <c r="I102" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K102" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K102" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4655,7 +4675,7 @@
         <v/>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G103" s="5" t="str">
@@ -4667,11 +4687,11 @@
         <v/>
       </c>
       <c r="I103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K103" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K103" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4681,7 +4701,7 @@
         <v/>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G104" s="5" t="str">
@@ -4693,11 +4713,11 @@
         <v/>
       </c>
       <c r="I104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K104" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K104" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4707,7 +4727,7 @@
         <v/>
       </c>
       <c r="F105" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G105" s="5" t="str">
@@ -4719,11 +4739,11 @@
         <v/>
       </c>
       <c r="I105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K105" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K105" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4733,7 +4753,7 @@
         <v/>
       </c>
       <c r="F106" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G106" s="5" t="str">
@@ -4745,11 +4765,11 @@
         <v/>
       </c>
       <c r="I106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K106" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K106" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4759,7 +4779,7 @@
         <v/>
       </c>
       <c r="F107" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G107" s="5" t="str">
@@ -4771,11 +4791,11 @@
         <v/>
       </c>
       <c r="I107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K107" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K107" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4785,7 +4805,7 @@
         <v/>
       </c>
       <c r="F108" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G108" s="5" t="str">
@@ -4797,11 +4817,11 @@
         <v/>
       </c>
       <c r="I108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K108" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K108" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4811,7 +4831,7 @@
         <v/>
       </c>
       <c r="F109" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G109" s="5" t="str">
@@ -4823,11 +4843,11 @@
         <v/>
       </c>
       <c r="I109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K109" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K109" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4837,7 +4857,7 @@
         <v/>
       </c>
       <c r="F110" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G110" s="5" t="str">
@@ -4849,11 +4869,11 @@
         <v/>
       </c>
       <c r="I110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K110" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K110" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4863,7 +4883,7 @@
         <v/>
       </c>
       <c r="F111" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G111" s="5" t="str">
@@ -4875,11 +4895,11 @@
         <v/>
       </c>
       <c r="I111" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K111" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K111" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4889,7 +4909,7 @@
         <v/>
       </c>
       <c r="F112" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G112" s="5" t="str">
@@ -4901,11 +4921,11 @@
         <v/>
       </c>
       <c r="I112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K112" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K112" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4915,7 +4935,7 @@
         <v/>
       </c>
       <c r="F113" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G113" s="5" t="str">
@@ -4927,11 +4947,11 @@
         <v/>
       </c>
       <c r="I113" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K113" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K113" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4941,7 +4961,7 @@
         <v/>
       </c>
       <c r="F114" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G114" s="5" t="str">
@@ -4953,11 +4973,11 @@
         <v/>
       </c>
       <c r="I114" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K114" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K114" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4967,7 +4987,7 @@
         <v/>
       </c>
       <c r="F115" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G115" s="5" t="str">
@@ -4979,11 +4999,11 @@
         <v/>
       </c>
       <c r="I115" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K115" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K115" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4993,7 +5013,7 @@
         <v/>
       </c>
       <c r="F116" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G116" s="5" t="str">
@@ -5005,11 +5025,11 @@
         <v/>
       </c>
       <c r="I116" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K116" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K116" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5019,7 +5039,7 @@
         <v/>
       </c>
       <c r="F117" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G117" s="5" t="str">
@@ -5031,11 +5051,11 @@
         <v/>
       </c>
       <c r="I117" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K117" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K117" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5045,7 +5065,7 @@
         <v/>
       </c>
       <c r="F118" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G118" s="5" t="str">
@@ -5057,11 +5077,11 @@
         <v/>
       </c>
       <c r="I118" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K118" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K118" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5071,7 +5091,7 @@
         <v/>
       </c>
       <c r="F119" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G119" s="5" t="str">
@@ -5083,11 +5103,11 @@
         <v/>
       </c>
       <c r="I119" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K119" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K119" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5097,7 +5117,7 @@
         <v/>
       </c>
       <c r="F120" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G120" s="5" t="str">
@@ -5109,11 +5129,11 @@
         <v/>
       </c>
       <c r="I120" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K120" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K120" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5123,7 +5143,7 @@
         <v/>
       </c>
       <c r="F121" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G121" s="5" t="str">
@@ -5135,11 +5155,11 @@
         <v/>
       </c>
       <c r="I121" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K121" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K121" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5149,7 +5169,7 @@
         <v/>
       </c>
       <c r="F122" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G122" s="5" t="str">
@@ -5161,11 +5181,11 @@
         <v/>
       </c>
       <c r="I122" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K122" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K122" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5175,7 +5195,7 @@
         <v/>
       </c>
       <c r="F123" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G123" s="5" t="str">
@@ -5187,11 +5207,11 @@
         <v/>
       </c>
       <c r="I123" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K123" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K123" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5201,7 +5221,7 @@
         <v/>
       </c>
       <c r="F124" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G124" s="5" t="str">
@@ -5213,11 +5233,11 @@
         <v/>
       </c>
       <c r="I124" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K124" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K124" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5227,7 +5247,7 @@
         <v/>
       </c>
       <c r="F125" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G125" s="5" t="str">
@@ -5239,11 +5259,11 @@
         <v/>
       </c>
       <c r="I125" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K125" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K125" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5253,7 +5273,7 @@
         <v/>
       </c>
       <c r="F126" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G126" s="5" t="str">
@@ -5265,11 +5285,11 @@
         <v/>
       </c>
       <c r="I126" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K126" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K126" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5279,7 +5299,7 @@
         <v/>
       </c>
       <c r="F127" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G127" s="5" t="str">
@@ -5291,11 +5311,11 @@
         <v/>
       </c>
       <c r="I127" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K127" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K127" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5305,7 +5325,7 @@
         <v/>
       </c>
       <c r="F128" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G128" s="5" t="str">
@@ -5317,11 +5337,11 @@
         <v/>
       </c>
       <c r="I128" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K128" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K128" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5331,7 +5351,7 @@
         <v/>
       </c>
       <c r="F129" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G129" s="5" t="str">
@@ -5343,11 +5363,11 @@
         <v/>
       </c>
       <c r="I129" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K129" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K129" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5357,7 +5377,7 @@
         <v/>
       </c>
       <c r="F130" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G130" s="5" t="str">
@@ -5369,11 +5389,11 @@
         <v/>
       </c>
       <c r="I130" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K130" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K130" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5383,7 +5403,7 @@
         <v/>
       </c>
       <c r="F131" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G131" s="5" t="str">
@@ -5395,11 +5415,11 @@
         <v/>
       </c>
       <c r="I131" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K131" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K131" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5409,7 +5429,7 @@
         <v/>
       </c>
       <c r="F132" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G132" s="5" t="str">
@@ -5421,11 +5441,11 @@
         <v/>
       </c>
       <c r="I132" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K132" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K132" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5435,7 +5455,7 @@
         <v/>
       </c>
       <c r="F133" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G133" s="5" t="str">
@@ -5447,11 +5467,11 @@
         <v/>
       </c>
       <c r="I133" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K133" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K133" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5461,7 +5481,7 @@
         <v/>
       </c>
       <c r="F134" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G134" s="5" t="str">
@@ -5473,11 +5493,11 @@
         <v/>
       </c>
       <c r="I134" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K134" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K134" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5487,7 +5507,7 @@
         <v/>
       </c>
       <c r="F135" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G135" s="5" t="str">
@@ -5499,11 +5519,11 @@
         <v/>
       </c>
       <c r="I135" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K135" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K135" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5513,7 +5533,7 @@
         <v/>
       </c>
       <c r="F136" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G136" s="5" t="str">
@@ -5525,11 +5545,11 @@
         <v/>
       </c>
       <c r="I136" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K136" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K136" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5539,7 +5559,7 @@
         <v/>
       </c>
       <c r="F137" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G137" s="5" t="str">
@@ -5551,11 +5571,11 @@
         <v/>
       </c>
       <c r="I137" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K137" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K137" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5565,7 +5585,7 @@
         <v/>
       </c>
       <c r="F138" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G138" s="5" t="str">
@@ -5577,11 +5597,11 @@
         <v/>
       </c>
       <c r="I138" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K138" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K138" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5591,7 +5611,7 @@
         <v/>
       </c>
       <c r="F139" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G139" s="5" t="str">
@@ -5603,11 +5623,11 @@
         <v/>
       </c>
       <c r="I139" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K139" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K139" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5617,7 +5637,7 @@
         <v/>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G140" s="5" t="str">
@@ -5629,11 +5649,11 @@
         <v/>
       </c>
       <c r="I140" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K140" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K140" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5643,7 +5663,7 @@
         <v/>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G141" s="5" t="str">
@@ -5655,11 +5675,11 @@
         <v/>
       </c>
       <c r="I141" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K141" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K141" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5669,7 +5689,7 @@
         <v/>
       </c>
       <c r="F142" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G142" s="5" t="str">
@@ -5681,11 +5701,11 @@
         <v/>
       </c>
       <c r="I142" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K142" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K142" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5695,7 +5715,7 @@
         <v/>
       </c>
       <c r="F143" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G143" s="5" t="str">
@@ -5707,11 +5727,11 @@
         <v/>
       </c>
       <c r="I143" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K143" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K143" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5721,7 +5741,7 @@
         <v/>
       </c>
       <c r="F144" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G144" s="5" t="str">
@@ -5733,11 +5753,11 @@
         <v/>
       </c>
       <c r="I144" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K144" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K144" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5747,7 +5767,7 @@
         <v/>
       </c>
       <c r="F145" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G145" s="5" t="str">
@@ -5759,11 +5779,11 @@
         <v/>
       </c>
       <c r="I145" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K145" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K145" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5773,7 +5793,7 @@
         <v/>
       </c>
       <c r="F146" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G146" s="5" t="str">
@@ -5785,11 +5805,11 @@
         <v/>
       </c>
       <c r="I146" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K146" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K146" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5799,7 +5819,7 @@
         <v/>
       </c>
       <c r="F147" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G147" s="5" t="str">
@@ -5811,11 +5831,11 @@
         <v/>
       </c>
       <c r="I147" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K147" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K147" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5825,7 +5845,7 @@
         <v/>
       </c>
       <c r="F148" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G148" s="5" t="str">
@@ -5837,11 +5857,11 @@
         <v/>
       </c>
       <c r="I148" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K148" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K148" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -5851,7 +5871,7 @@
         <v/>
       </c>
       <c r="F149" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G149" s="5" t="str">
@@ -5863,11 +5883,11 @@
         <v/>
       </c>
       <c r="I149" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K149" s="1" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K149" s="1" t="str">
-        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -28130,7 +28150,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Game!" error="This game is already present in the list." sqref="B4:B1003" xr:uid="{39DDE296-3C48-470E-B559-700730A815BC}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Game!" error="This game is already present in the list." sqref="B4:B82 B84:B1003" xr:uid="{39DDE296-3C48-470E-B559-700730A815BC}">
       <formula1>COUNTIF($B$4:$B$1003,B4)=1</formula1>
     </dataValidation>
   </dataValidations>
